--- a/October'21/24.10.2021/Daily Sales Info.xlsx
+++ b/October'21/24.10.2021/Daily Sales Info.xlsx
@@ -42134,8 +42134,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
